--- a/data/hotels_by_city/Houston/Houston_shard_602.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_602.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12287844-Reviews-Staybridge_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-Medical-Center.h16263507.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,214 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r582025516-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12287844</t>
+  </si>
+  <si>
+    <t>582025516</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Windows broken out of our vehicles!!</t>
+  </si>
+  <si>
+    <t>My husband and I met here to attend a meeting the next day. Windows of six vehicles were busted during the night. Insides of the vehicles were a disaster. Luckily we didn't have anything of value for them to take!! One Hotel employee told us there was no overnight security but the front desk clerk and the manager tried telling us there was but maybe it was "shift change"...UH I doubt that!! Little to no concern from them...just told us the police left a note on our windshield. Nice enough / clean place but that WILL be our last stay there!!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r580016691-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580016691</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Location on Main Street Means Road Noise for Rooms Facing the Highway</t>
+  </si>
+  <si>
+    <t>The odd numbered rooms from 1 to 21 face Main Street.  For me, the sound proofing  of my odd-numbered room is cleary inadequate.  Bring good earplugs.Also note the "Limited Service" especially on weekends.  If you check in on Friday, you have to ask on Friday for Limited Service, otherwise no service at all.  This was not explained to me until Saturday -- at which point I was told it was too late for Limited Service over the weekend.  So Limited Service to clean your room is zero service, unless you request on Friday for service over the weekend.  (Would be nice to be told this on check in on a Friday)On the good side, this is a new hotel -- less than a year old.  The rooms are nice, furniture new and functional, and beds good.  This would be a good hotel potentially for a longer stay.  TV has lots of channels.  There's a wing of the hotel farther back from Main Street.  I'd try to stay there.  But Main Street in Houston is 8 lanes of noise, 24 hours a day.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The odd numbered rooms from 1 to 21 face Main Street.  For me, the sound proofing  of my odd-numbered room is cleary inadequate.  Bring good earplugs.Also note the "Limited Service" especially on weekends.  If you check in on Friday, you have to ask on Friday for Limited Service, otherwise no service at all.  This was not explained to me until Saturday -- at which point I was told it was too late for Limited Service over the weekend.  So Limited Service to clean your room is zero service, unless you request on Friday for service over the weekend.  (Would be nice to be told this on check in on a Friday)On the good side, this is a new hotel -- less than a year old.  The rooms are nice, furniture new and functional, and beds good.  This would be a good hotel potentially for a longer stay.  TV has lots of channels.  There's a wing of the hotel farther back from Main Street.  I'd try to stay there.  But Main Street in Houston is 8 lanes of noise, 24 hours a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r567343914-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567343914</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I stayed here for a night while in Houston. The rooms were very clean. Staff was friendly. Kitchen had everything you needed including a large refrigerator. Directly across from NRG but noise was not an issue. If you’re in the area this is definitely worth the price. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r550961831-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550961831</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Texas Bowl Stay</t>
+  </si>
+  <si>
+    <t>Checked in to the hotel the night before the Academy Sports and Outdoors Texas Bowl and it was painless. The hotel is located about 5 minutes to the entrance of  NRG stadium ( we walked). The hotel was spotless and the entire staff was friendly and helpful. There are a lot of places to eat near the hotel and with the kitchens in the rooms, leftovers don't go to waste.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r525411185-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525411185</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel; close to MD Anderson</t>
+  </si>
+  <si>
+    <t>Came to Houston for check up at MD Anderson. Hotel has only been opened since January. Still has new smell. Room was really nice and large with big kitchen. Free breakfast was good. I would definatly stay here again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r497017967-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497017967</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent property....would stay again!</t>
+  </si>
+  <si>
+    <t>Recently traveled with family for a trip to MD Anderson.  This hotel was very accomadating.  They building and amenities were amazing.  This property is fairly new, so that helps out tremendously. The rooms are very well appointed.  Loved the walk in shower.  Just wish the shower head had been a little more powerful.One thing that I did notice was the shuttle.  If you are depending on this mode of transportation please note that it only runs at the top of the hour.  My brother in law had to be at MD Anderson at 7:50. So it was either leave at 7am or take an uber.  Which was only $5 that time of morning.  Breakfast was so so.  Nothing spectacular but it did the job.Also when we checked out, Jada at the front desk was so nice and friendly. She made us feel at home....if you need one night or several weeks you can't go wrong with this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Recently traveled with family for a trip to MD Anderson.  This hotel was very accomadating.  They building and amenities were amazing.  This property is fairly new, so that helps out tremendously. The rooms are very well appointed.  Loved the walk in shower.  Just wish the shower head had been a little more powerful.One thing that I did notice was the shuttle.  If you are depending on this mode of transportation please note that it only runs at the top of the hour.  My brother in law had to be at MD Anderson at 7:50. So it was either leave at 7am or take an uber.  Which was only $5 that time of morning.  Breakfast was so so.  Nothing spectacular but it did the job.Also when we checked out, Jada at the front desk was so nice and friendly. She made us feel at home....if you need one night or several weeks you can't go wrong with this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r484752398-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484752398</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>This was my first time staying at the  Staybridge suites Medical Center and its safe to say it wont be my last.
+ I was initially put off because I was concerned about the area. Having read some reviews of hotels in the area. (Not many reviews on Staybridge yet ) 
+ First id like to say I never felt as if this was a bad or unsafe neighborhood. But if you are concerned know that there is 24 hour security at this Hotel and an extensive camera system in place.
+The cliental seemed to be mostly patients,family's and some businessman.
+I'm never sure exactly what people are looking for when they want a hotel. This ISNT a 5 star upscale luxury hotel. Houston has plenty of those.  But that doesn't mean that it cant have the highest rating on tripadvisor.
+If you are looking for a very nice mid level Hotel look no further. The rooms are very well appointed and designed with the extended stay in mind. I rented a 2 bedroom suite. It has a King size bed in one room, 2 queens in one room  and two bathrooms.
+It also has a separate living area and small kitchen. The Kitchen has a full size refrigerator ,sink ,dishwasher microwave and two burner stove top for cooking.
+The furnishings appear new as does the entire facility.
+The staff is very helpful and courteous especially the front desk ladies and the...This was my first time staying at the  Staybridge suites Medical Center and its safe to say it wont be my last. I was initially put off because I was concerned about the area. Having read some reviews of hotels in the area. (Not many reviews on Staybridge yet )  First id like to say I never felt as if this was a bad or unsafe neighborhood. But if you are concerned know that there is 24 hour security at this Hotel and an extensive camera system in place.The cliental seemed to be mostly patients,family's and some businessman.I'm never sure exactly what people are looking for when they want a hotel. This ISNT a 5 star upscale luxury hotel. Houston has plenty of those.  But that doesn't mean that it cant have the highest rating on tripadvisor.If you are looking for a very nice mid level Hotel look no further. The rooms are very well appointed and designed with the extended stay in mind. I rented a 2 bedroom suite. It has a King size bed in one room, 2 queens in one room  and two bathrooms.It also has a separate living area and small kitchen. The Kitchen has a full size refrigerator ,sink ,dishwasher microwave and two burner stove top for cooking.The furnishings appear new as does the entire facility.The staff is very helpful and courteous especially the front desk ladies and the one gentleman I spoke with.The hotel also offers a free shuttle to MD Anderson that we took full advantage of. The drivers were very friendly and helpful. They will also take you anywhere within a 3 mile radius of the hotel. So if you'd like you can save the parking fees at MD Anderson or Rice village and not have to fight traffic.  For those that would rather drive to the medical center it is a short drive maybe 2 miles at the most without having to use the highway.There are plenty of restaurants in the area. However, we enjoyed breakfast and a daily social hour ( Monday thru Wed.)where they serve Hors D'oeuvres, Wine ,beer and soft drinks at the hotel.If there is one negative that id say about this place. It would be that I noticed a noise like a generator or something however it didn't bother my sleep. But I was on the top floor. I've been writing reviews on trip advisor for quite some time and it is my opinion that once the word gets out, especially among MD Anderson patients about this hotel it will become a difficult room to book.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This was my first time staying at the  Staybridge suites Medical Center and its safe to say it wont be my last.
+ I was initially put off because I was concerned about the area. Having read some reviews of hotels in the area. (Not many reviews on Staybridge yet ) 
+ First id like to say I never felt as if this was a bad or unsafe neighborhood. But if you are concerned know that there is 24 hour security at this Hotel and an extensive camera system in place.
+The cliental seemed to be mostly patients,family's and some businessman.
+I'm never sure exactly what people are looking for when they want a hotel. This ISNT a 5 star upscale luxury hotel. Houston has plenty of those.  But that doesn't mean that it cant have the highest rating on tripadvisor.
+If you are looking for a very nice mid level Hotel look no further. The rooms are very well appointed and designed with the extended stay in mind. I rented a 2 bedroom suite. It has a King size bed in one room, 2 queens in one room  and two bathrooms.
+It also has a separate living area and small kitchen. The Kitchen has a full size refrigerator ,sink ,dishwasher microwave and two burner stove top for cooking.
+The furnishings appear new as does the entire facility.
+The staff is very helpful and courteous especially the front desk ladies and the...This was my first time staying at the  Staybridge suites Medical Center and its safe to say it wont be my last. I was initially put off because I was concerned about the area. Having read some reviews of hotels in the area. (Not many reviews on Staybridge yet )  First id like to say I never felt as if this was a bad or unsafe neighborhood. But if you are concerned know that there is 24 hour security at this Hotel and an extensive camera system in place.The cliental seemed to be mostly patients,family's and some businessman.I'm never sure exactly what people are looking for when they want a hotel. This ISNT a 5 star upscale luxury hotel. Houston has plenty of those.  But that doesn't mean that it cant have the highest rating on tripadvisor.If you are looking for a very nice mid level Hotel look no further. The rooms are very well appointed and designed with the extended stay in mind. I rented a 2 bedroom suite. It has a King size bed in one room, 2 queens in one room  and two bathrooms.It also has a separate living area and small kitchen. The Kitchen has a full size refrigerator ,sink ,dishwasher microwave and two burner stove top for cooking.The furnishings appear new as does the entire facility.The staff is very helpful and courteous especially the front desk ladies and the one gentleman I spoke with.The hotel also offers a free shuttle to MD Anderson that we took full advantage of. The drivers were very friendly and helpful. They will also take you anywhere within a 3 mile radius of the hotel. So if you'd like you can save the parking fees at MD Anderson or Rice village and not have to fight traffic.  For those that would rather drive to the medical center it is a short drive maybe 2 miles at the most without having to use the highway.There are plenty of restaurants in the area. However, we enjoyed breakfast and a daily social hour ( Monday thru Wed.)where they serve Hors D'oeuvres, Wine ,beer and soft drinks at the hotel.If there is one negative that id say about this place. It would be that I noticed a noise like a generator or something however it didn't bother my sleep. But I was on the top floor. I've been writing reviews on trip advisor for quite some time and it is my opinion that once the word gets out, especially among MD Anderson patients about this hotel it will become a difficult room to book.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r476915990-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476915990</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel but noisy and spoiled by room mix up</t>
+  </si>
+  <si>
+    <t>We booked a room for 4 and confirmed this when we checked in. However the room had one kingsize bed and a single sofa bed so was clearly not suitable for 4. Why was it sold as a room for 4 and why did the receptionist at check in not know that it wasnt suitable for us? So we carried all our bags up there and only found out it wasnt suitable when we unfolded the sofa bed. We then waited to see if a suitable room was available but had to book 2 studio rooms instead, so double the price and our children were in a separate room!! Wouldn't have booked this room if it had been correctly advertised and may have saved money by going elsewhereThe rooms were clean and well equipped but the hotel is very noisy with people sitting outside our room (we were on ground floor) talking loudly until the early hours. This isnt controlled by the hotel in any way. There was a very noisy generator outside my sons' room too.Breakfast was free but had run out when we arrived, a good 30 mins before service due to end. We waited at least 10 mins for more to be prepared.Oh and there is no maid service at weekend!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We booked a room for 4 and confirmed this when we checked in. However the room had one kingsize bed and a single sofa bed so was clearly not suitable for 4. Why was it sold as a room for 4 and why did the receptionist at check in not know that it wasnt suitable for us? So we carried all our bags up there and only found out it wasnt suitable when we unfolded the sofa bed. We then waited to see if a suitable room was available but had to book 2 studio rooms instead, so double the price and our children were in a separate room!! Wouldn't have booked this room if it had been correctly advertised and may have saved money by going elsewhereThe rooms were clean and well equipped but the hotel is very noisy with people sitting outside our room (we were on ground floor) talking loudly until the early hours. This isnt controlled by the hotel in any way. There was a very noisy generator outside my sons' room too.Breakfast was free but had run out when we arrived, a good 30 mins before service due to end. We waited at least 10 mins for more to be prepared.Oh and there is no maid service at weekend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r475660579-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475660579</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Perfectly Adequate Mid-Level Property - Actually Better than Most</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick overnight while on a Houston turnaround. First impression was that the place looked very new and very, very clean. Nice curb appeal. The interior did not disappoint. The lobby and associated spaces were really nice. What blew me away was the size of the rooms (see photos). I had a queen efficiency. My colleague had a one room suite on another floor. While my room was huge, he reported that his was massive. Funny thing was in the queen efficiently that I was in, the bed was lost in the expanse of the space. Breakfast was fine. Standard fare.Very pleased all the way around. Will repeat when in the area.RecommendedMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick overnight while on a Houston turnaround. First impression was that the place looked very new and very, very clean. Nice curb appeal. The interior did not disappoint. The lobby and associated spaces were really nice. What blew me away was the size of the rooms (see photos). I had a queen efficiency. My colleague had a one room suite on another floor. While my room was huge, he reported that his was massive. Funny thing was in the queen efficiently that I was in, the bed was lost in the expanse of the space. Breakfast was fine. Standard fare.Very pleased all the way around. Will repeat when in the area.RecommendedMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +746,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +778,628 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_602.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_602.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r601316334-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12287844</t>
+  </si>
+  <si>
+    <t>601316334</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Nice people (workers), good service, BEST WIFI &amp; a GREAT BED! We enjoyed our stay at the hotel. Thank you guys very much for everything, we had a great time and we will come back soon! Greets from The Netherlands!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r584664386-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584664386</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel itself is excellent, the property, the location and the shuttle service are all superb. The shuttle driver was such a sweetie, so kind and helpful. On the other hand, the front desk staff leaves much to say: Both ladies at the front desk were SUPER rude &amp; unhelpful. Also, we went on a Medical trip therefore we reserved an accessibility room, upon arrival we were told the room wasn’t available. It is unfortunate that a hotel with so much potential is being held back by rude and incompetent front desk staff. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r582025516-Staybridge_Suites-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>12287844</t>
-  </si>
-  <si>
     <t>582025516</t>
   </si>
   <si>
@@ -171,12 +213,6 @@
     <t>My husband and I met here to attend a meeting the next day. Windows of six vehicles were busted during the night. Insides of the vehicles were a disaster. Luckily we didn't have anything of value for them to take!! One Hotel employee told us there was no overnight security but the front desk clerk and the manager tried telling us there was but maybe it was "shift change"...UH I doubt that!! Little to no concern from them...just told us the police left a note on our windshield. Nice enough / clean place but that WILL be our last stay there!!</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r580016691-Staybridge_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -219,6 +255,45 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r565158611-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565158611</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Home away for longer stays</t>
+  </si>
+  <si>
+    <t>Second time I have stayed here for business trip lasting over a week.  Love having a kitchen with a full size fridge and stove (although there could be more pan options).  Room was very nice, larger than last time but for 1 person very spacious (pull out sofa and king bed allow for 4 people but it would be cramped in the smaller room for sure.  Very nice social hours Mon-Wed with decent food.  Breakfast bar is plentifully stocked each day.  Easy walk to local stores to reduce reliance on restaurants and nice workout room as well as free laundry room (just bring supplies or plan to buy).  Staff are incredibly friendly.  Walls are not tremendously soundproof but overall I would stay again and consider the price very good for the quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Second time I have stayed here for business trip lasting over a week.  Love having a kitchen with a full size fridge and stove (although there could be more pan options).  Room was very nice, larger than last time but for 1 person very spacious (pull out sofa and king bed allow for 4 people but it would be cramped in the smaller room for sure.  Very nice social hours Mon-Wed with decent food.  Breakfast bar is plentifully stocked each day.  Easy walk to local stores to reduce reliance on restaurants and nice workout room as well as free laundry room (just bring supplies or plan to buy).  Staff are incredibly friendly.  Walls are not tremendously soundproof but overall I would stay again and consider the price very good for the quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r555532036-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555532036</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Medical Center Trip</t>
+  </si>
+  <si>
+    <t>There are some positives and negatives. Hotel is very clean and staff was nice. They have a decent breakfast and an evening social hour. Rooms are large with a small kitchen. Our room had a cool view of NRG stadium but also faced the street. The road noise was noticeable especially the 1st night. The Medical Center is a short drive up the road. Rice Village is a cool place to shop and eat that's very close. Seems overpriced but most of the Houston hotels are.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r550961831-Staybridge_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -273,10 +348,43 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Recently traveled with family for a trip to MD Anderson.  This hotel was very accomadating.  They building and amenities were amazing.  This property is fairly new, so that helps out tremendously. The rooms are very well appointed.  Loved the walk in shower.  Just wish the shower head had been a little more powerful.One thing that I did notice was the shuttle.  If you are depending on this mode of transportation please note that it only runs at the top of the hour.  My brother in law had to be at MD Anderson at 7:50. So it was either leave at 7am or take an uber.  Which was only $5 that time of morning.  Breakfast was so so.  Nothing spectacular but it did the job.Also when we checked out, Jada at the front desk was so nice and friendly. She made us feel at home....if you need one night or several weeks you can't go wrong with this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r492746024-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492746024</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Visiting MD Anderson</t>
+  </si>
+  <si>
+    <t>Stayed two night-- Very nice hotel. The staff was outstanding the gueen room was clean large and very much fit the bill.We cooled off in the pool both days. The area was clean and we'll maintained.Breakfast is what you expect nothing bad and nothing outstanding except for the staff lady putting it all together was very friendly and always had a smile.We will be staying again on our next trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r486003146-Staybridge_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486003146</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>AWESOME stay</t>
+  </si>
+  <si>
+    <t>We were in town for one night, and chose this hotel for the 2 bedroom suite.  While we have read poor reviews about this area, we were not disappointed by the area or the hotel.  My wife is the hard one to please and she was blown away by the clean and spacious rooms that were well appointed, and the extremely friendly and helpful staff.  Our suite was very comfortable, everything worked, and it smelled clean.  The grounds were well kept, the hotel was quiet, and there was security on-site all night with many security cameras around the property.  We will not hesitate to stay here again when in the area.  Quite frankly, this is one of the nicest places we have stayed in a while, and we have stayed in several 5 star hotels over the years.  While not 5 star, it is clean and modern and definitely worth the price.  Easy access to the medical center, NRG Stadium, Loop 610, and lots of restaurants in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We were in town for one night, and chose this hotel for the 2 bedroom suite.  While we have read poor reviews about this area, we were not disappointed by the area or the hotel.  My wife is the hard one to please and she was blown away by the clean and spacious rooms that were well appointed, and the extremely friendly and helpful staff.  Our suite was very comfortable, everything worked, and it smelled clean.  The grounds were well kept, the hotel was quiet, and there was security on-site all night with many security cameras around the property.  We will not hesitate to stay here again when in the area.  Quite frankly, this is one of the nicest places we have stayed in a while, and we have stayed in several 5 star hotels over the years.  While not 5 star, it is clean and modern and definitely worth the price.  Easy access to the medical center, NRG Stadium, Loop 610, and lots of restaurants in the area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12287844-r484752398-Staybridge_Suites-Houston_Texas.html</t>
@@ -300,9 +408,6 @@
 It also has a separate living area and small kitchen. The Kitchen has a full size refrigerator ,sink ,dishwasher microwave and two burner stove top for cooking.
 The furnishings appear new as does the entire facility.
 The staff is very helpful and courteous especially the front desk ladies and the...This was my first time staying at the  Staybridge suites Medical Center and its safe to say it wont be my last. I was initially put off because I was concerned about the area. Having read some reviews of hotels in the area. (Not many reviews on Staybridge yet )  First id like to say I never felt as if this was a bad or unsafe neighborhood. But if you are concerned know that there is 24 hour security at this Hotel and an extensive camera system in place.The cliental seemed to be mostly patients,family's and some businessman.I'm never sure exactly what people are looking for when they want a hotel. This ISNT a 5 star upscale luxury hotel. Houston has plenty of those.  But that doesn't mean that it cant have the highest rating on tripadvisor.If you are looking for a very nice mid level Hotel look no further. The rooms are very well appointed and designed with the extended stay in mind. I rented a 2 bedroom suite. It has a King size bed in one room, 2 queens in one room  and two bathrooms.It also has a separate living area and small kitchen. The Kitchen has a full size refrigerator ,sink ,dishwasher microwave and two burner stove top for cooking.The furnishings appear new as does the entire facility.The staff is very helpful and courteous especially the front desk ladies and the one gentleman I spoke with.The hotel also offers a free shuttle to MD Anderson that we took full advantage of. The drivers were very friendly and helpful. They will also take you anywhere within a 3 mile radius of the hotel. So if you'd like you can save the parking fees at MD Anderson or Rice village and not have to fight traffic.  For those that would rather drive to the medical center it is a short drive maybe 2 miles at the most without having to use the highway.There are plenty of restaurants in the area. However, we enjoyed breakfast and a daily social hour ( Monday thru Wed.)where they serve Hors D'oeuvres, Wine ,beer and soft drinks at the hotel.If there is one negative that id say about this place. It would be that I noticed a noise like a generator or something however it didn't bother my sleep. But I was on the top floor. I've been writing reviews on trip advisor for quite some time and it is my opinion that once the word gets out, especially among MD Anderson patients about this hotel it will become a difficult room to book.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2017</t>
   </si>
   <si>
     <t>This was my first time staying at the  Staybridge suites Medical Center and its safe to say it wont be my last.
@@ -887,7 +992,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -897,14 +1002,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -948,31 +1049,27 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1009,20 +1106,24 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1045,7 +1146,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1054,37 +1155,35 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1108,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1117,25 +1216,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="O6" t="s">
-        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1149,7 +1248,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1192,19 +1291,17 @@
         <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1212,7 +1309,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1228,7 +1325,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1237,37 +1334,37 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
       <c r="O8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1275,7 +1372,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1388,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1300,37 +1397,37 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1338,7 +1435,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1354,7 +1451,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1363,43 +1460,409 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>99</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
         <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65646</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
